--- a/UT.Vend.BLL/HelperFiles/ProjectEvent.xlsx
+++ b/UT.Vend.BLL/HelperFiles/ProjectEvent.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>EventID</t>
   </si>
@@ -36,9 +36,6 @@
     <t>AddrID</t>
   </si>
   <si>
-    <t>6/1/2014 5:00PM</t>
-  </si>
-  <si>
     <t>e32b152d-bf2f-4a4c-9d5d-6290e08d02f7</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>[Vend].[tblProjectEvent]</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -148,8 +151,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -490,247 +493,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="2" max="3" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>41791.5</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2+0.25</f>
+        <v>41791.75</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>"INSERT INTO "&amp;A2&amp;" ([" &amp; B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; TEXT(D2, "yyyy/mm/dd hh:mm") &amp; "' ,'" &amp; TEXT(E2, "yyyy/mm/dd hh:mm") &amp; "' ,'" &amp; F2 &amp; "' )"</f>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( 'e32b152d-bf2f-4a4c-9d5d-6290e08d02f7','dffeab07-7872-4d13-aa6b-5480afb9b2d8','2014/06/01 12:00' ,'2014/06/01 18:00' ,'0' )</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41798.534543874055</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41799.400887489552</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G11" si="0">"INSERT INTO "&amp;A3&amp;" ([" &amp; B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; TEXT(D3, "yyyy/mm/dd hh:mm") &amp; "' ,'" &amp; TEXT(E3, "yyyy/mm/dd hh:mm") &amp; "' ,'" &amp; F3 &amp; "' )"</f>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '8fd81510-a002-4a63-876d-666e7ce2a366','364ac77c-d08e-4134-9849-fe731b00af2d','2014/06/08 12:49' ,'2014/06/09 09:37' ,'0' )</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41807.134928820851</v>
+      </c>
+      <c r="E4" s="2">
+        <v>41807.708283319225</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '8dfb5b5e-ca45-4a72-b6a4-2bd6e67ba11d','137255ed-78f0-4f31-abbb-6759486938f0','2014/06/17 03:14' ,'2014/06/17 16:59' ,'0' )</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41813.8989527905</v>
+      </c>
+      <c r="E5" s="2">
+        <v>41814.406091151344</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '46cfe47c-44f9-4b00-a86b-017a519b85af','dffeab07-7872-4d13-aa6b-5480afb9b2d8','2014/06/23 21:34' ,'2014/06/24 09:44' ,'0' )</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>41817.808933292858</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41818.546630931764</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '84fd9662-9d4c-48e7-ba3d-6acc4414bdbf','364ac77c-d08e-4134-9849-fe731b00af2d','2014/06/27 19:24' ,'2014/06/28 13:07' ,'0' )</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
-        <v>41791.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <f>"INSERT INTO [Vend].[tblProject] ([" &amp; A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "' ,'" &amp; D2 &amp; "' ,'" &amp; E2 &amp; "' )"</f>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( 'e32b152d-bf2f-4a4c-9d5d-6290e08d02f7','dffeab07-7872-4d13-aa6b-5480afb9b2d8','41791.5' ,'6/1/2014 5:00PM' ,'0' )</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41798.534543874055</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41799.400887489552</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F11" si="0">"INSERT INTO [Vend].[tblProject] ([" &amp; A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "' ,'" &amp; D3 &amp; "' ,'" &amp; E3 &amp; "' )"</f>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '8fd81510-a002-4a63-876d-666e7ce2a366','364ac77c-d08e-4134-9849-fe731b00af2d','41798.5345438741' ,'41799.4008874895' ,'0' )</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D7" s="2">
+        <v>41821.286141587007</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41821.81573100025</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '540dbe90-25f7-4122-afd1-2db04b430df3','f79359bb-2524-4cd5-b452-acaa8fd0d33b','2014/07/01 06:52' ,'2014/07/01 19:34' ,'0' )</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41828.901858387719</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41829.03143017699</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( 'ed109c07-e0e2-4270-ab95-63f668f5a0e1','5cc9ad09-3002-40e8-8a30-96b656a9d805','2014/07/08 21:38' ,'2014/07/09 00:45' ,'0' )</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41836.141447228038</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41836.964741424708</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '0242ef5b-a9f8-4b71-8c63-8860b0f694a2','dffeab07-7872-4d13-aa6b-5480afb9b2d8','2014/07/16 03:23' ,'2014/07/16 23:09' ,'0' )</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
-        <v>41807.134928820851</v>
-      </c>
-      <c r="D4" s="1">
-        <v>41807.708283319225</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="str">
+      <c r="D10" s="2">
+        <v>41836.398440783239</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41837.077325079845</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '8dfb5b5e-ca45-4a72-b6a4-2bd6e67ba11d','137255ed-78f0-4f31-abbb-6759486938f0','41807.1349288209' ,'41807.7082833192' ,'0' )</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41813.8989527905</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41814.406091151344</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="str">
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( 'a8f57c72-3e20-43d5-a805-9053605ce56b','fb986b83-d3c1-4dc6-bb25-4ddc3423fd5e','2014/07/16 09:33' ,'2014/07/17 01:51' ,'0' )</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41839.932905012007</v>
+      </c>
+      <c r="E11" s="2">
+        <v>41839.952251078394</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '46cfe47c-44f9-4b00-a86b-017a519b85af','dffeab07-7872-4d13-aa6b-5480afb9b2d8','41813.8989527905' ,'41814.4060911513' ,'0' )</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>41817.808933292858</v>
-      </c>
-      <c r="D6" s="1">
-        <v>41818.546630931764</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '84fd9662-9d4c-48e7-ba3d-6acc4414bdbf','364ac77c-d08e-4134-9849-fe731b00af2d','41817.8089332929' ,'41818.5466309318' ,'0' )</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>41821.286141587007</v>
-      </c>
-      <c r="D7" s="1">
-        <v>41821.81573100025</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '540dbe90-25f7-4122-afd1-2db04b430df3','f79359bb-2524-4cd5-b452-acaa8fd0d33b','41821.286141587' ,'41821.8157310002' ,'0' )</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>41828.901858387719</v>
-      </c>
-      <c r="D8" s="1">
-        <v>41829.03143017699</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( 'ed109c07-e0e2-4270-ab95-63f668f5a0e1','5cc9ad09-3002-40e8-8a30-96b656a9d805','41828.9018583877' ,'41829.031430177' ,'0' )</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>41836.141447228038</v>
-      </c>
-      <c r="D9" s="1">
-        <v>41836.964741424708</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '0242ef5b-a9f8-4b71-8c63-8860b0f694a2','dffeab07-7872-4d13-aa6b-5480afb9b2d8','41836.141447228' ,'41836.9647414247' ,'0' )</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>41836.398440783239</v>
-      </c>
-      <c r="D10" s="1">
-        <v>41837.077325079845</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( 'a8f57c72-3e20-43d5-a805-9053605ce56b','fb986b83-d3c1-4dc6-bb25-4ddc3423fd5e','41836.3984407832' ,'41837.0773250798' ,'0' )</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>41839.932905012007</v>
-      </c>
-      <c r="D11" s="1">
-        <v>41839.952251078394</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Vend].[tblProject] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '3d7092be-99e3-49bb-9151-94c4aa88cefc','dffeab07-7872-4d13-aa6b-5480afb9b2d8','41839.932905012' ,'41839.9522510784' ,'0' )</v>
+        <v>INSERT INTO [Vend].[tblProjectEvent] ([EventID],[ProjectID],[StartDateTime],[EndDateTime],[AddrID]) VALUES ( '3d7092be-99e3-49bb-9151-94c4aa88cefc','dffeab07-7872-4d13-aa6b-5480afb9b2d8','2014/07/19 22:23' ,'2014/07/19 22:51' ,'0' )</v>
       </c>
     </row>
   </sheetData>
